--- a/data/medicine.xlsx
+++ b/data/medicine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Echo\3AI\Code\epidemic_crisis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanan/Develop/Python/epidemic_crisis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{815E8D9E-DD41-44DE-921C-E7F8A7D991D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00001CC-B5D1-6E46-B5D7-6787740F4132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="3195" windowWidth="21600" windowHeight="10320" xr2:uid="{B7F95D37-EC24-42FB-B55A-10C783B531A1}"/>
+    <workbookView xWindow="9680" yWindow="8300" windowWidth="21600" windowHeight="10320" xr2:uid="{B7F95D37-EC24-42FB-B55A-10C783B531A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Number</t>
   </si>
@@ -53,25 +53,51 @@
     <t>Research_Count</t>
   </si>
   <si>
-    <t>盘尼西林A</t>
-  </si>
-  <si>
-    <t>盘尼西林B</t>
-  </si>
-  <si>
-    <t>盘尼西林C</t>
+    <t>盘尼西林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥司他韦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA疫苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力消毒液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,7 +128,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -118,9 +144,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,7 +184,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -264,7 +290,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,21 +440,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659876E6-7BAB-447A-8FA0-B45954B48DD6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +470,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -461,8 +490,11 @@
       <c r="E2" s="1">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -478,8 +510,11 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -495,13 +530,16 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -512,8 +550,13 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/medicine.xlsx
+++ b/data/medicine.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanan/Develop/Python/epidemic_crisis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00001CC-B5D1-6E46-B5D7-6787740F4132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8761042-A4A4-544D-BBDA-2C762CD35601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="8300" windowWidth="21600" windowHeight="10320" xr2:uid="{B7F95D37-EC24-42FB-B55A-10C783B531A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{B7F95D37-EC24-42FB-B55A-10C783B531A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="medicine" sheetId="1" r:id="rId1"/>
+    <sheet name="question" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="108">
   <si>
     <t>Number</t>
   </si>
@@ -78,6 +79,390 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适应症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘尼西林适用于哪些类型的细菌感染？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于哪些常见的感染性疾病（如肺炎、扁桃体炎、皮肤软组织感染等）可以使用盘尼西林？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘尼西林对哪些特定的病原体（如链球菌、葡萄球菌、肺炎链球菌等）有特效？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用药前评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何确定患者是否适合使用盘尼西林？有哪些禁忌症需要考虑？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在开始治疗前，是否需要进行过敏测试？如何进行？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些个人病史（如既往过敏反应、肝肾功能状况、药物相互作用等）可能影响盘尼西林的使用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用药指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘尼西林的常规剂量是多少？如何根据患者年龄、体重、感染严重程度等因素调整剂量？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘尼西林应如何给药（口服、注射）？用药频率和疗程通常是多久？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用药期间应遵循哪些饮食或生活习惯以提高药物疗效或减少副作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副作用与管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘尼西林最常引发的副作用有哪些？如何识别和区分轻微与严重副作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生过敏反应（如荨麻疹、呼吸困难）时应如何紧急处理？是否需要备有急救药物如肾上腺素？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对胃肠道不适、肝脏功能受损等副作用，有何应对策略或替代药物推荐？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何监测并处理因用药导致的肝肾功能变化或其他实验室指标异常？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊人群用药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哺乳期妇女使用盘尼西林的安全性如何？对婴儿有何潜在风险？是否需要暂停哺乳？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年人使用盘尼西林时有何特殊注意事项？如何调整剂量或监测不良反应？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于免疫功能低下、肝肾功能不全或其他慢性病患者，使用盘尼西林有何特殊考量？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥司他韦主要用于治疗哪些类型的流感？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它是否适用于预防流感？如果可以，适用的具体情况是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些人群绝对禁止使用奥司他韦？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对奥司他韦或其成分过敏的患者应如何处理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝肾功能不全的患者能否使用奥司他韦？如果有条件使用，如何调整剂量或监测指标？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥司他韦是否适用于妊娠期和哺乳期妇女？有何风险或建议？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥司他韦应在何时开始服用以获得最佳疗效？对于治疗和预防流感，起始用药时机有何不同？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥司他韦的标准疗程是多久？何时可以停止用药？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥司他韦应空腹还是随餐服用？服药时有何饮水要求？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的奥司他韦副作用有哪些？如何应对？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何识别和处理可能与奥司他韦相关的严重不良反应？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥司他韦是否与特定的精神症状（如青少年抑郁症、自杀倾向）有关？如何监测和管理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥司他韦可用于多大年龄的儿童？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童使用奥司他韦的剂量如何确定？是否依据体重调整？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童使用奥司他韦有哪些特殊注意事项或潜在风险？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本原理与机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA疫苗如何诱导免疫反应？具体的工作原理是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与传统疫苗（如灭活疫苗、减毒活疫苗）相比，RNA疫苗在设计与作用方式上有何不同？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适应症与保护效力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA疫苗适用于预防哪些疾病？例如，针对新冠病毒的不同变种是否同样有效？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫保护的持久性如何？是否需要加强针或定期接种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接种程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA疫苗的标准接种剂量是多少？接种间隔是多久？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于特殊群体（如老年人、孕妇、免疫功能低下者），接种程序有何特别建议或调整？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接种前准备与禁忌症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接种前需要进行哪些评估或筛查？如过敏史、基础疾病情况等？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在哪些明确的禁忌症或需谨慎接种的情况？如已知对疫苗成分过敏、急性疾病发作期等？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接种后反应与副作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接种RNA疫苗后，常见的局部和全身反应有哪些？如何区分正常反应与严重副作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何处理常见的副作用（如疼痛、红肿、发热、疲劳等）？何时应联系医疗专业人员？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无罕见但严重的副作用（如过敏反应、心肌炎等）？如何早期识别并及时救治？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储与运输要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA疫苗的存储温度要求有多严格？需要特殊的冷链设备吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在分发和接种点如何确保疫苗维持在适宜的温度条件下？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫效果监测与验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接种后如何监测免疫反应？是否需要进行抗体检测或T细胞反应评估？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何理解疫苗接种后的抗体滴度与保护力的关系？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫苗更新与升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对病毒变异，RNA疫苗如何快速适应并更新配方？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已接种原始疫苗的个体如何过渡到接种针对新变异株的疫苗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊人群接种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童、青少年和老年人接种RNA疫苗有何特别考虑？剂量、安全性、免疫反应有何差异？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于免疫抑制状态的个体，RNA疫苗的效果如何？是否需要额外剂量或辅助免疫增强策略？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消毒剂类型与选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的消毒剂种类有哪些？各有什么特点和适用范围？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据消毒对象（如皮肤、物体表面、空气、医疗器械等）选择合适的消毒剂？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据病原微生物（如细菌、病毒、真菌、孢子等）特性选择有效的消毒剂？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓度与配制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何准确配制消毒剂至所需有效浓度？是否需要使用专用的测量工具？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含氯消毒剂、酒精、碘伏等常见消毒剂的推荐使用浓度分别是多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何判断消毒剂是否已失效或过期？是否可以继续使用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用方法与技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同消毒剂的正确使用步骤是什么？浸泡、擦拭、喷雾、熏蒸等方法有何适用场合？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何确保消毒剂与待消毒表面充分接触并保持足够作用时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于难以清洁的缝隙、复杂表面或特殊材质，如何进行有效消毒？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用消毒剂时应如何避免对人体（特别是皮肤、眼睛、呼吸道）造成伤害？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何安全储存消毒剂，以防止儿童误触或宠物误食？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何正确处理使用过的消毒剂废弃物，以避免环境污染？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊场景应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在医疗机构中，针对不同区域（如病房、手术室、检验科等）和物品（如医疗器械、患者衣物、环境表面等）应如何选用和使用消毒剂？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家庭环境中，如何合理使用消毒剂进行日常清洁与消毒，特别是在疫情期间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于食品加工、餐饮服务行业，有哪些专门的食品安全消毒规定和推荐使用的消毒剂？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消毒效果监测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何通过化学指示剂、生物指示剂等手段验证消毒效果？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在消毒过程中，如何监控消毒剂的浓度变化以确保持续有效？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何定期进行消毒效果评估，以调整消毒策略或更换消毒产品？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过敏反应与应急处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用消毒剂过程中可能出现哪些过敏反应？如何识别并及时处理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于已知对某种消毒成分过敏的人群，应如何选择替代品或采取特殊防护措施？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消毒剂与其他清洁产品的兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消毒剂能否与肥皂、洗涤剂、漂白剂等清洁产品混合使用？有何潜在风险？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何避免不同消毒剂之间发生化学反应，导致失效或产生有害气体？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,10 +506,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,7 +831,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -528,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -548,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -559,4 +947,827 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E892FF6-49C0-E244-9E47-55CDA5CD60F7}">
+  <dimension ref="A1:C73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>